--- a/resources/experiment 2/metrics/MAPE/incidence/Microalbuminuria (INC).xlsx
+++ b/resources/experiment 2/metrics/MAPE/incidence/Microalbuminuria (INC).xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.022352237786275e+16</v>
+        <v>1.022352237786274e+16</v>
       </c>
       <c r="C2" t="n">
         <v>1.022352237786275e+16</v>
@@ -478,45 +478,45 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.06204945223948286</v>
+        <v>0.01089868156067072</v>
       </c>
       <c r="C3" t="n">
-        <v>0.06204945223948288</v>
+        <v>0.01232332837280409</v>
       </c>
       <c r="D3" t="n">
-        <v>0.06204945223948288</v>
+        <v>5143037499490696</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GradientBoostingRegressor</t>
+          <t>DecisionTreeRegressor</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>334535710118401.9</v>
+        <v>0.01244444200575735</v>
       </c>
       <c r="C4" t="n">
-        <v>334429711095856.2</v>
+        <v>0.01400735442123902</v>
       </c>
       <c r="D4" t="n">
-        <v>334429711095856.2</v>
+        <v>0.02330753297411731</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>AdaBoostRegressor</t>
+          <t>MLPRegressor</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1690941170584568</v>
+        <v>373981365044435.4</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1690941170584568</v>
+        <v>203847449768752.8</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1690941170584568</v>
+        <v>793492095635976.4</v>
       </c>
     </row>
   </sheetData>
